--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl5-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl5-Cxcr3.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.202688333333333</v>
+        <v>0.1780343333333333</v>
       </c>
       <c r="H2">
-        <v>6.608065</v>
+        <v>0.534103</v>
       </c>
       <c r="I2">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736916</v>
       </c>
       <c r="J2">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736915</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.191103</v>
       </c>
       <c r="O2">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P2">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q2">
-        <v>0.1403134495216666</v>
+        <v>0.01134096506766667</v>
       </c>
       <c r="R2">
-        <v>1.262821045695</v>
+        <v>0.102068685609</v>
       </c>
       <c r="S2">
-        <v>0.01665065541250462</v>
+        <v>5.88025295057795E-05</v>
       </c>
       <c r="T2">
-        <v>0.01665065541250462</v>
+        <v>5.880252950577948E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.202688333333333</v>
+        <v>0.1780343333333333</v>
       </c>
       <c r="H3">
-        <v>6.608065</v>
+        <v>0.534103</v>
       </c>
       <c r="I3">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736916</v>
       </c>
       <c r="J3">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736915</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N3">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O3">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P3">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q3">
-        <v>0.4482757107816667</v>
+        <v>0.4809590987074445</v>
       </c>
       <c r="R3">
-        <v>4.034481397035</v>
+        <v>4.328631888367</v>
       </c>
       <c r="S3">
-        <v>0.05319578711425337</v>
+        <v>0.00249375705013404</v>
       </c>
       <c r="T3">
-        <v>0.05319578711425337</v>
+        <v>0.002493757050134039</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.202688333333333</v>
+        <v>0.1780343333333333</v>
       </c>
       <c r="H4">
-        <v>6.608065</v>
+        <v>0.534103</v>
       </c>
       <c r="I4">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736916</v>
       </c>
       <c r="J4">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736915</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N4">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O4">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P4">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q4">
-        <v>1.051506140436667</v>
+        <v>0.2115945766487778</v>
       </c>
       <c r="R4">
-        <v>9.463555263930001</v>
+        <v>1.904351189839</v>
       </c>
       <c r="S4">
-        <v>0.124779673425676</v>
+        <v>0.001097110895097096</v>
       </c>
       <c r="T4">
-        <v>0.1247796734256759</v>
+        <v>0.001097110895097096</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>14.500353</v>
       </c>
       <c r="I5">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804967</v>
       </c>
       <c r="J5">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804965</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -750,10 +750,10 @@
         <v>0.191103</v>
       </c>
       <c r="O5">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P5">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q5">
         <v>0.307895662151</v>
@@ -762,10 +762,10 @@
         <v>2.771060959359</v>
       </c>
       <c r="S5">
-        <v>0.03653722854764258</v>
+        <v>0.001596428844486398</v>
       </c>
       <c r="T5">
-        <v>0.03653722854764258</v>
+        <v>0.001596428844486397</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>14.500353</v>
       </c>
       <c r="I6">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804967</v>
       </c>
       <c r="J6">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804965</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N6">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O6">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P6">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q6">
-        <v>0.9836701133630001</v>
+        <v>13.05755015384633</v>
       </c>
       <c r="R6">
-        <v>8.853031020267002</v>
+        <v>117.517951384617</v>
       </c>
       <c r="S6">
-        <v>0.1167297372634085</v>
+        <v>0.06770296651241854</v>
       </c>
       <c r="T6">
-        <v>0.1167297372634085</v>
+        <v>0.06770296651241853</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>14.500353</v>
       </c>
       <c r="I7">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804967</v>
       </c>
       <c r="J7">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804965</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N7">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O7">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P7">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q7">
-        <v>2.307363837674</v>
+        <v>5.744577458454334</v>
       </c>
       <c r="R7">
-        <v>20.766274539066</v>
+        <v>51.70119712608901</v>
       </c>
       <c r="S7">
-        <v>0.2738092485314568</v>
+        <v>0.02978544449114472</v>
       </c>
       <c r="T7">
-        <v>0.2738092485314567</v>
+        <v>0.02978544449114471</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1.031759666666667</v>
+        <v>35.63223</v>
       </c>
       <c r="H8">
-        <v>3.095279</v>
+        <v>106.89669</v>
       </c>
       <c r="I8">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="J8">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.191103</v>
       </c>
       <c r="O8">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P8">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q8">
-        <v>0.06572412252633332</v>
+        <v>2.26980868323</v>
       </c>
       <c r="R8">
-        <v>0.5915171027369999</v>
+        <v>20.42827814907</v>
       </c>
       <c r="S8">
-        <v>0.007799321591806664</v>
+        <v>0.01176888309519918</v>
       </c>
       <c r="T8">
-        <v>0.007799321591806664</v>
+        <v>0.01176888309519917</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1.031759666666667</v>
+        <v>35.63223</v>
       </c>
       <c r="H9">
-        <v>3.095279</v>
+        <v>106.89669</v>
       </c>
       <c r="I9">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="J9">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N9">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O9">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P9">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q9">
-        <v>0.2099765050423334</v>
+        <v>96.26033869349</v>
       </c>
       <c r="R9">
-        <v>1.889788545381</v>
+        <v>866.3430482414102</v>
       </c>
       <c r="S9">
-        <v>0.02491740059203701</v>
+        <v>0.4991066785310941</v>
       </c>
       <c r="T9">
-        <v>0.02491740059203701</v>
+        <v>0.4991066785310941</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.031759666666667</v>
+        <v>35.63223</v>
       </c>
       <c r="H10">
-        <v>3.095279</v>
+        <v>106.89669</v>
       </c>
       <c r="I10">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="J10">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N10">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O10">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P10">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q10">
-        <v>0.4925352391153333</v>
+        <v>42.34905976133</v>
       </c>
       <c r="R10">
-        <v>4.432817152038</v>
+        <v>381.14153785197</v>
       </c>
       <c r="S10">
-        <v>0.05844795757628789</v>
+        <v>0.2195784769020523</v>
       </c>
       <c r="T10">
-        <v>0.05844795757628788</v>
+        <v>0.2195784769020523</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4219816666666667</v>
+        <v>0.5521946666666667</v>
       </c>
       <c r="H11">
-        <v>1.265945</v>
+        <v>1.656584</v>
       </c>
       <c r="I11">
-        <v>0.03728564388507135</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="J11">
-        <v>0.03728564388507136</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1122,22 +1122,22 @@
         <v>0.191103</v>
       </c>
       <c r="O11">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P11">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q11">
-        <v>0.02688065414833333</v>
+        <v>0.03517535246133333</v>
       </c>
       <c r="R11">
-        <v>0.241925887335</v>
+        <v>0.316578172152</v>
       </c>
       <c r="S11">
-        <v>0.00318986177741641</v>
+        <v>0.0001823830413586935</v>
       </c>
       <c r="T11">
-        <v>0.003189861777416411</v>
+        <v>0.0001823830413586934</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4219816666666667</v>
+        <v>0.5521946666666667</v>
       </c>
       <c r="H12">
-        <v>1.265945</v>
+        <v>1.656584</v>
       </c>
       <c r="I12">
-        <v>0.03728564388507135</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="J12">
-        <v>0.03728564388507136</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N12">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O12">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P12">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q12">
-        <v>0.08587875492833336</v>
+        <v>1.491751867286222</v>
       </c>
       <c r="R12">
-        <v>0.7729087943550002</v>
+        <v>13.425766805576</v>
       </c>
       <c r="S12">
-        <v>0.01019102274544114</v>
+        <v>0.007734684188516539</v>
       </c>
       <c r="T12">
-        <v>0.01019102274544114</v>
+        <v>0.007734684188516538</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4219816666666667</v>
+        <v>0.5521946666666667</v>
       </c>
       <c r="H13">
-        <v>1.265945</v>
+        <v>1.656584</v>
       </c>
       <c r="I13">
-        <v>0.03728564388507135</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="J13">
-        <v>0.03728564388507136</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N13">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O13">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P13">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q13">
-        <v>0.2014430761433333</v>
+        <v>0.6562857541768889</v>
       </c>
       <c r="R13">
-        <v>1.81298768529</v>
+        <v>5.906571787592</v>
       </c>
       <c r="S13">
-        <v>0.02390475936221381</v>
+        <v>0.003402819971135771</v>
       </c>
       <c r="T13">
-        <v>0.02390475936221381</v>
+        <v>0.00340281997113577</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>2.827656666666666</v>
+        <v>7.585023666666667</v>
       </c>
       <c r="H14">
-        <v>8.48297</v>
+        <v>22.755071</v>
       </c>
       <c r="I14">
-        <v>0.2498473460598554</v>
+        <v>0.155491563947857</v>
       </c>
       <c r="J14">
-        <v>0.2498473460598555</v>
+        <v>0.1554915639478569</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1308,22 +1308,22 @@
         <v>0.191103</v>
       </c>
       <c r="O14">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P14">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q14">
-        <v>0.1801245573233333</v>
+        <v>0.4831735925903333</v>
       </c>
       <c r="R14">
-        <v>1.62112101591</v>
+        <v>4.348562333313</v>
       </c>
       <c r="S14">
-        <v>0.02137494264124435</v>
+        <v>0.002505239127815436</v>
       </c>
       <c r="T14">
-        <v>0.02137494264124435</v>
+        <v>0.002505239127815435</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>2.827656666666666</v>
+        <v>7.585023666666667</v>
       </c>
       <c r="H15">
-        <v>8.48297</v>
+        <v>22.755071</v>
       </c>
       <c r="I15">
-        <v>0.2498473460598554</v>
+        <v>0.155491563947857</v>
       </c>
       <c r="J15">
-        <v>0.2498473460598555</v>
+        <v>0.1554915639478569</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N15">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O15">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P15">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q15">
-        <v>0.5754648912033333</v>
+        <v>20.49091362374656</v>
       </c>
       <c r="R15">
-        <v>5.17918402083</v>
+        <v>184.418222613719</v>
       </c>
       <c r="S15">
-        <v>0.06828901746829033</v>
+        <v>0.1062447107253669</v>
       </c>
       <c r="T15">
-        <v>0.06828901746829033</v>
+        <v>0.1062447107253669</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>2.827656666666666</v>
+        <v>7.585023666666667</v>
       </c>
       <c r="H16">
-        <v>8.48297</v>
+        <v>22.755071</v>
       </c>
       <c r="I16">
-        <v>0.2498473460598554</v>
+        <v>0.155491563947857</v>
       </c>
       <c r="J16">
-        <v>0.2498473460598555</v>
+        <v>0.1554915639478569</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N16">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O16">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P16">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q16">
-        <v>1.349849773593333</v>
+        <v>9.014833496269222</v>
       </c>
       <c r="R16">
-        <v>12.14864796234</v>
+        <v>81.13350146642301</v>
       </c>
       <c r="S16">
-        <v>0.1601833859503208</v>
+        <v>0.0467416140946746</v>
       </c>
       <c r="T16">
-        <v>0.1601833859503208</v>
+        <v>0.04674161409467458</v>
       </c>
     </row>
   </sheetData>
